--- a/src/test/java/resources/Capitals (2).xlsx
+++ b/src/test/java/resources/Capitals (2).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>POPULATION5</t>
+  </si>
+  <si>
+    <t>64000</t>
   </si>
 </sst>
 </file>
@@ -461,6 +464,9 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
